--- a/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0480A5F-9A60-4953-8C60-E33FE211EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09EC17E-4888-4954-BE59-788F78AD98D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C71E732-EF48-4574-840C-3E9E440CA908}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F357DC0-8F18-45DA-96DD-B44843B87E88}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,196 +104,202 @@
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>6,36%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>80,43%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -302,109 +308,103 @@
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>7,34%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -413,19 +413,19 @@
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>7,57%</t>
@@ -434,343 +434,337 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>9,09%</t>
+    <t>9,04%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -779,64 +773,70 @@
     <t>8,7%</t>
   </si>
   <si>
+    <t>10,62%</t>
+  </si>
+  <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68588EE0-66B0-45D6-BCFA-B08B061EBCE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0077AD-16C1-4F06-A6FF-3FF9415E1DE1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,13 +1513,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>147</v>
@@ -1528,13 +1528,13 @@
         <v>315159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -1543,13 +1543,13 @@
         <v>288415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>312</v>
@@ -1558,13 +1558,13 @@
         <v>603574</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,13 +1579,13 @@
         <v>377679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -1594,13 +1594,13 @@
         <v>354957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
@@ -1609,18 +1609,18 @@
         <v>732636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1632,13 +1632,13 @@
         <v>8721</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -1647,13 +1647,13 @@
         <v>25776</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -1662,13 +1662,13 @@
         <v>34497</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>15215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -1698,13 +1698,13 @@
         <v>19956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -1713,13 +1713,13 @@
         <v>35171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>59898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -1749,13 +1749,13 @@
         <v>87305</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -1764,19 +1764,19 @@
         <v>147202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>234</v>
@@ -1785,13 +1785,13 @@
         <v>344562</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -1800,13 +1800,13 @@
         <v>365540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>566</v>
@@ -1815,13 +1815,13 @@
         <v>710102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,13 +1836,13 @@
         <v>428396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
@@ -1851,13 +1851,13 @@
         <v>498577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
@@ -1866,18 +1866,18 @@
         <v>926973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>26248</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -1904,13 +1904,13 @@
         <v>32369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -1919,13 +1919,13 @@
         <v>58617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>30300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -1955,13 +1955,13 @@
         <v>36401</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>82</v>
@@ -1970,10 +1970,10 @@
         <v>66701</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>104</v>
@@ -2033,7 +2033,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>407</v>
@@ -2093,13 +2093,13 @@
         <v>557252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
@@ -2108,13 +2108,13 @@
         <v>583476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1392</v>
@@ -2123,13 +2123,13 @@
         <v>1140727</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2290,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>440</v>
@@ -2350,13 +2350,13 @@
         <v>723990</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
@@ -2365,13 +2365,13 @@
         <v>746854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
@@ -2380,13 +2380,13 @@
         <v>1470844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,10 +2406,10 @@
         <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
@@ -2418,13 +2418,13 @@
         <v>94876</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>211</v>
@@ -2433,13 +2433,13 @@
         <v>154304</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2454,13 @@
         <v>41224</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>151</v>
@@ -2469,13 +2469,13 @@
         <v>86154</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
@@ -2484,13 +2484,13 @@
         <v>127378</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>154273</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>293</v>
@@ -2520,13 +2520,13 @@
         <v>165750</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>470</v>
@@ -2535,19 +2535,19 @@
         <v>320023</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>376</v>
@@ -2556,13 +2556,13 @@
         <v>344154</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>408</v>
@@ -2571,13 +2571,13 @@
         <v>246978</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>784</v>
@@ -2586,13 +2586,13 @@
         <v>591132</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>599080</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
@@ -2622,13 +2622,13 @@
         <v>593758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
@@ -2637,18 +2637,18 @@
         <v>1192837</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2660,13 +2660,13 @@
         <v>93120</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>300</v>
@@ -2675,13 +2675,13 @@
         <v>178037</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>434</v>
@@ -2690,13 +2690,13 @@
         <v>271157</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2711,13 @@
         <v>63056</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>260</v>
@@ -2726,13 +2726,13 @@
         <v>136420</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>357</v>
@@ -2741,13 +2741,13 @@
         <v>199476</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2762,13 @@
         <v>187473</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>567</v>
@@ -2777,13 +2777,13 @@
         <v>285131</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>849</v>
@@ -2792,19 +2792,19 @@
         <v>472604</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>515</v>
@@ -2813,13 +2813,13 @@
         <v>354106</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>580</v>
@@ -2828,13 +2828,13 @@
         <v>426438</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>1095</v>
@@ -2843,13 +2843,13 @@
         <v>780544</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,16 +2861,16 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>1707</v>
@@ -2879,13 +2879,13 @@
         <v>1026026</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>2735</v>
@@ -2894,13 +2894,13 @@
         <v>1723780</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2917,13 @@
         <v>236796</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>622</v>
@@ -2932,13 +2932,13 @@
         <v>412573</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>886</v>
@@ -2947,13 +2947,13 @@
         <v>649370</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
         <v>206644</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>618</v>
@@ -2983,13 +2983,13 @@
         <v>371649</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M35" s="7">
         <v>852</v>
@@ -2998,10 +2998,10 @@
         <v>578293</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>248</v>
@@ -3061,7 +3061,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>2119</v>
@@ -3121,13 +3121,13 @@
         <v>3384151</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>5360</v>
@@ -3136,13 +3136,13 @@
         <v>3803647</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>8735</v>
@@ -3151,13 +3151,13 @@
         <v>7187798</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09EC17E-4888-4954-BE59-788F78AD98D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCA9EE4-31F9-47A3-9812-3A4365F6A81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F357DC0-8F18-45DA-96DD-B44843B87E88}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{913FA60A-76CC-4859-9A96-86A8FFC00F31}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0077AD-16C1-4F06-A6FF-3FF9415E1DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DFE0D3-C84B-41FB-85A1-F644A1985F39}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCA9EE4-31F9-47A3-9812-3A4365F6A81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B9AC7B-3E17-4984-8CA9-E37460F28983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{913FA60A-76CC-4859-9A96-86A8FFC00F31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF5C26B-CC2C-462C-9C3C-95EE0A9B0034}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,628 +77,637 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>6,17%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>26,87%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>21,45%</t>
+    <t>21,11%</t>
   </si>
   <si>
     <t>29,97%</t>
@@ -707,64 +716,61 @@
     <t>50,75%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>41,56%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
   </si>
   <si>
     <t>45,28%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -773,70 +779,64 @@
     <t>8,7%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>8,69%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DFE0D3-C84B-41FB-85A1-F644A1985F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7798F6B-3C26-4CDD-AC52-54C40AE50828}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,13 +1513,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>147</v>
@@ -1528,13 +1528,13 @@
         <v>315159</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -1543,13 +1543,13 @@
         <v>288415</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>312</v>
@@ -1558,13 +1558,13 @@
         <v>603574</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,13 +1579,13 @@
         <v>377679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -1594,13 +1594,13 @@
         <v>354957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
@@ -1609,18 +1609,18 @@
         <v>732636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1632,13 +1632,13 @@
         <v>8721</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -1647,13 +1647,13 @@
         <v>25776</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -1662,13 +1662,13 @@
         <v>34497</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>15215</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -1698,13 +1698,13 @@
         <v>19956</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -1713,13 +1713,13 @@
         <v>35171</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>59898</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -1749,13 +1749,13 @@
         <v>87305</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -1764,19 +1764,19 @@
         <v>147202</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>234</v>
@@ -1785,13 +1785,13 @@
         <v>344562</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -1800,13 +1800,13 @@
         <v>365540</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>566</v>
@@ -1815,13 +1815,13 @@
         <v>710102</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,13 +1836,13 @@
         <v>428396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
@@ -1851,13 +1851,13 @@
         <v>498577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
@@ -1866,18 +1866,18 @@
         <v>926973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>26248</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -1904,13 +1904,13 @@
         <v>32369</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -1919,13 +1919,13 @@
         <v>58617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>30300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -1955,13 +1955,13 @@
         <v>36401</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>82</v>
@@ -1970,10 +1970,10 @@
         <v>66701</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>104</v>
@@ -2033,7 +2033,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>407</v>
@@ -2093,13 +2093,13 @@
         <v>557252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
@@ -2108,13 +2108,13 @@
         <v>583476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1392</v>
@@ -2123,13 +2123,13 @@
         <v>1140727</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2290,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>440</v>
@@ -2350,13 +2350,13 @@
         <v>723990</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
@@ -2365,13 +2365,13 @@
         <v>746854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
@@ -2380,13 +2380,13 @@
         <v>1470844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,10 +2406,10 @@
         <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
@@ -2418,13 +2418,13 @@
         <v>94876</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>211</v>
@@ -2433,13 +2433,13 @@
         <v>154304</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2454,13 @@
         <v>41224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>151</v>
@@ -2469,13 +2469,13 @@
         <v>86154</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
@@ -2484,13 +2484,13 @@
         <v>127378</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>154273</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>293</v>
@@ -2520,13 +2520,13 @@
         <v>165750</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>470</v>
@@ -2535,19 +2535,19 @@
         <v>320023</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>376</v>
@@ -2556,13 +2556,13 @@
         <v>344154</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>408</v>
@@ -2571,13 +2571,13 @@
         <v>246978</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>784</v>
@@ -2586,13 +2586,13 @@
         <v>591132</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>599080</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
@@ -2622,13 +2622,13 @@
         <v>593758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
@@ -2637,18 +2637,18 @@
         <v>1192837</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2660,13 +2660,13 @@
         <v>93120</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>300</v>
@@ -2675,13 +2675,13 @@
         <v>178037</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>434</v>
@@ -2690,13 +2690,13 @@
         <v>271157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2711,13 @@
         <v>63056</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>260</v>
@@ -2726,13 +2726,13 @@
         <v>136420</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>357</v>
@@ -2741,13 +2741,13 @@
         <v>199476</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2762,13 @@
         <v>187473</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>567</v>
@@ -2777,13 +2777,13 @@
         <v>285131</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>849</v>
@@ -2792,19 +2792,19 @@
         <v>472604</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>515</v>
@@ -2813,13 +2813,13 @@
         <v>354106</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>580</v>
@@ -2828,13 +2828,13 @@
         <v>426438</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>1095</v>
@@ -2843,13 +2843,13 @@
         <v>780544</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,16 +2861,16 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>1707</v>
@@ -2879,13 +2879,13 @@
         <v>1026026</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>2735</v>
@@ -2894,13 +2894,13 @@
         <v>1723780</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2917,13 @@
         <v>236796</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>622</v>
@@ -2932,13 +2932,13 @@
         <v>412573</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>886</v>
@@ -2947,13 +2947,13 @@
         <v>649370</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
         <v>206644</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>618</v>
@@ -2983,13 +2983,13 @@
         <v>371649</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="M35" s="7">
         <v>852</v>
@@ -2998,10 +2998,10 @@
         <v>578293</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>248</v>
@@ -3061,7 +3061,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>2119</v>
@@ -3121,13 +3121,13 @@
         <v>3384151</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>5360</v>
@@ -3136,13 +3136,13 @@
         <v>3803647</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>8735</v>
@@ -3151,13 +3151,13 @@
         <v>7187798</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B9AC7B-3E17-4984-8CA9-E37460F28983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F988196-95E4-4402-A198-A3CCCA9114ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF5C26B-CC2C-462C-9C3C-95EE0A9B0034}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{290FFE36-DDFF-4E97-AD2A-0AFBF9B1CA10}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="303">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -65,778 +65,883 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,8 +1356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7798F6B-3C26-4CDD-AC52-54C40AE50828}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D3C725-0FC1-4712-86CB-7937E0EF8DC8}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1372,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>7226</v>
+        <v>8033</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1387,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>12213</v>
+        <v>10891</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1402,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>19438</v>
+        <v>18923</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1423,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>10732</v>
+        <v>11110</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1438,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>16391</v>
+        <v>14765</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1453,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>27123</v>
+        <v>25874</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1474,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>44562</v>
+        <v>43686</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1489,7 +1594,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>37938</v>
+        <v>32925</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1504,7 +1609,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="7">
-        <v>82501</v>
+        <v>76611</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1513,58 +1618,58 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>147</v>
       </c>
       <c r="D7" s="7">
-        <v>315159</v>
+        <v>337158</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
       </c>
       <c r="I7" s="7">
-        <v>288415</v>
+        <v>254620</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>312</v>
       </c>
       <c r="N7" s="7">
-        <v>603574</v>
+        <v>591778</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,51 +1681,51 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1629,46 +1734,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>8721</v>
+        <v>8160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>25776</v>
+        <v>22470</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
       </c>
       <c r="N9" s="7">
-        <v>34497</v>
+        <v>30630</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,46 +1785,46 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>15215</v>
+        <v>17114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>19956</v>
+        <v>18732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>35171</v>
+        <v>35846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,97 +1836,97 @@
         <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>59898</v>
+        <v>58081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
       </c>
       <c r="I11" s="7">
-        <v>87305</v>
+        <v>79660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
       </c>
       <c r="N11" s="7">
-        <v>147202</v>
+        <v>137740</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>344562</v>
+        <v>340192</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
       </c>
       <c r="I12" s="7">
-        <v>365540</v>
+        <v>390643</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>566</v>
       </c>
       <c r="N12" s="7">
-        <v>710102</v>
+        <v>730834</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,51 +1938,51 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1991,46 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>26248</v>
+        <v>24207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>32369</v>
+        <v>29719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
       </c>
       <c r="N14" s="7">
-        <v>58617</v>
+        <v>53926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +2042,46 @@
         <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>30300</v>
+        <v>29471</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
       </c>
       <c r="I15" s="7">
-        <v>36401</v>
+        <v>33661</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>82</v>
       </c>
       <c r="N15" s="7">
-        <v>66701</v>
+        <v>63132</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,97 +2093,97 @@
         <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>85256</v>
+        <v>80570</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>203</v>
       </c>
       <c r="I16" s="7">
-        <v>134768</v>
+        <v>123164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
       </c>
       <c r="N16" s="7">
-        <v>220024</v>
+        <v>203734</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>407</v>
       </c>
       <c r="D17" s="7">
-        <v>415448</v>
+        <v>402090</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>544</v>
       </c>
       <c r="I17" s="7">
-        <v>379938</v>
+        <v>355924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>951</v>
       </c>
       <c r="N17" s="7">
-        <v>795386</v>
+        <v>758014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,51 +2195,51 @@
         <v>546</v>
       </c>
       <c r="D18" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1392</v>
       </c>
       <c r="N18" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2143,46 +2248,46 @@
         <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>42053</v>
+        <v>38803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
       </c>
       <c r="I19" s="7">
-        <v>69303</v>
+        <v>62441</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
       </c>
       <c r="N19" s="7">
-        <v>111356</v>
+        <v>101244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,43 +2299,43 @@
         <v>48</v>
       </c>
       <c r="D20" s="7">
-        <v>46117</v>
+        <v>45096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
       </c>
       <c r="I20" s="7">
-        <v>76328</v>
+        <v>71479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>122445</v>
+        <v>116575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>141</v>
@@ -2245,7 +2350,7 @@
         <v>141</v>
       </c>
       <c r="D21" s="7">
-        <v>131590</v>
+        <v>123557</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
@@ -2260,7 +2365,7 @@
         <v>282</v>
       </c>
       <c r="I21" s="7">
-        <v>171233</v>
+        <v>156651</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>145</v>
@@ -2275,7 +2380,7 @@
         <v>423</v>
       </c>
       <c r="N21" s="7">
-        <v>302822</v>
+        <v>280209</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>148</v>
@@ -2290,13 +2395,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>440</v>
       </c>
       <c r="D22" s="7">
-        <v>504230</v>
+        <v>680330</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>151</v>
@@ -2311,7 +2416,7 @@
         <v>632</v>
       </c>
       <c r="I22" s="7">
-        <v>429991</v>
+        <v>421927</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>154</v>
@@ -2326,7 +2431,7 @@
         <v>1072</v>
       </c>
       <c r="N22" s="7">
-        <v>934220</v>
+        <v>1102258</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>157</v>
@@ -2347,46 +2452,46 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
       </c>
       <c r="I23" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
       </c>
       <c r="N23" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,46 +2505,46 @@
         <v>63</v>
       </c>
       <c r="D24" s="7">
-        <v>59429</v>
+        <v>53356</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
       </c>
       <c r="I24" s="7">
-        <v>94876</v>
+        <v>84604</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>211</v>
       </c>
       <c r="N24" s="7">
-        <v>154304</v>
+        <v>137960</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,46 +2556,46 @@
         <v>46</v>
       </c>
       <c r="D25" s="7">
-        <v>41224</v>
+        <v>39375</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>151</v>
       </c>
       <c r="I25" s="7">
-        <v>86154</v>
+        <v>79787</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
       </c>
       <c r="N25" s="7">
-        <v>127378</v>
+        <v>119162</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,97 +2607,97 @@
         <v>177</v>
       </c>
       <c r="D26" s="7">
-        <v>154273</v>
+        <v>142252</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>293</v>
       </c>
       <c r="I26" s="7">
-        <v>165750</v>
+        <v>151691</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>470</v>
       </c>
       <c r="N26" s="7">
-        <v>320023</v>
+        <v>293943</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>376</v>
       </c>
       <c r="D27" s="7">
-        <v>344154</v>
+        <v>325221</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>408</v>
       </c>
       <c r="I27" s="7">
-        <v>246978</v>
+        <v>228981</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>784</v>
       </c>
       <c r="N27" s="7">
-        <v>591132</v>
+        <v>554202</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,99 +2709,99 @@
         <v>662</v>
       </c>
       <c r="D28" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
       </c>
       <c r="I28" s="7">
-        <v>593758</v>
+        <v>545063</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
       </c>
       <c r="N28" s="7">
-        <v>1192837</v>
+        <v>1105267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7">
-        <v>93120</v>
+        <v>40363</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>129</v>
+      </c>
+      <c r="I29" s="7">
+        <v>65226</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H29" s="7">
-        <v>300</v>
-      </c>
-      <c r="I29" s="7">
-        <v>178037</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>194</v>
+      </c>
+      <c r="N29" s="7">
+        <v>105589</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M29" s="7">
-        <v>434</v>
-      </c>
-      <c r="N29" s="7">
-        <v>271157</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,49 +2810,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D30" s="7">
-        <v>63056</v>
+        <v>26900</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="7">
+        <v>105</v>
+      </c>
+      <c r="I30" s="7">
+        <v>50110</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="7">
-        <v>260</v>
-      </c>
-      <c r="I30" s="7">
-        <v>136420</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>147</v>
+      </c>
+      <c r="N30" s="7">
+        <v>77010</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M30" s="7">
-        <v>357</v>
-      </c>
-      <c r="N30" s="7">
-        <v>199476</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,100 +2861,100 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="D31" s="7">
-        <v>187473</v>
+        <v>98796</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>272</v>
+      </c>
+      <c r="I31" s="7">
+        <v>127236</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="7">
-        <v>567</v>
-      </c>
-      <c r="I31" s="7">
-        <v>285131</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>427</v>
+      </c>
+      <c r="N31" s="7">
+        <v>226033</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M31" s="7">
-        <v>849</v>
-      </c>
-      <c r="N31" s="7">
-        <v>472604</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>515</v>
+        <v>308</v>
       </c>
       <c r="D32" s="7">
-        <v>354106</v>
+        <v>202106</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="7">
+        <v>320</v>
+      </c>
+      <c r="I32" s="7">
+        <v>365230</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="7">
-        <v>580</v>
-      </c>
-      <c r="I32" s="7">
-        <v>426438</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>628</v>
+      </c>
+      <c r="N32" s="7">
+        <v>567336</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1095</v>
-      </c>
-      <c r="N32" s="7">
-        <v>780544</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,102 +2963,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I33" s="7">
-        <v>1026026</v>
+        <v>607802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2735</v>
+        <v>1396</v>
       </c>
       <c r="N33" s="7">
-        <v>1723780</v>
+        <v>975968</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="D34" s="7">
-        <v>236796</v>
+        <v>42443</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>171</v>
+      </c>
+      <c r="I34" s="7">
+        <v>88959</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H34" s="7">
-        <v>622</v>
-      </c>
-      <c r="I34" s="7">
-        <v>412573</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>240</v>
+      </c>
+      <c r="N34" s="7">
+        <v>131402</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="M34" s="7">
-        <v>886</v>
-      </c>
-      <c r="N34" s="7">
-        <v>649370</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,46 +3067,46 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="D35" s="7">
-        <v>206644</v>
+        <v>31813</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>155</v>
+      </c>
+      <c r="I35" s="7">
+        <v>73216</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H35" s="7">
-        <v>618</v>
-      </c>
-      <c r="I35" s="7">
-        <v>371649</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>210</v>
+      </c>
+      <c r="N35" s="7">
+        <v>105029</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M35" s="7">
-        <v>852</v>
-      </c>
-      <c r="N35" s="7">
-        <v>578293</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>248</v>
@@ -3013,10 +3118,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>758</v>
+        <v>127</v>
       </c>
       <c r="D36" s="7">
-        <v>663052</v>
+        <v>74118</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>249</v>
@@ -3028,10 +3133,10 @@
         <v>251</v>
       </c>
       <c r="H36" s="7">
-        <v>1459</v>
+        <v>295</v>
       </c>
       <c r="I36" s="7">
-        <v>882124</v>
+        <v>132841</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>252</v>
@@ -3043,10 +3148,10 @@
         <v>254</v>
       </c>
       <c r="M36" s="7">
-        <v>2217</v>
+        <v>422</v>
       </c>
       <c r="N36" s="7">
-        <v>1545176</v>
+        <v>206959</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>255</v>
@@ -3061,13 +3166,13 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>2119</v>
+        <v>207</v>
       </c>
       <c r="D37" s="7">
-        <v>2277659</v>
+        <v>134384</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>258</v>
@@ -3079,10 +3184,10 @@
         <v>260</v>
       </c>
       <c r="H37" s="7">
-        <v>2661</v>
+        <v>260</v>
       </c>
       <c r="I37" s="7">
-        <v>2137300</v>
+        <v>130815</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>261</v>
@@ -3094,10 +3199,10 @@
         <v>263</v>
       </c>
       <c r="M37" s="7">
-        <v>4780</v>
+        <v>467</v>
       </c>
       <c r="N37" s="7">
-        <v>4414959</v>
+        <v>265199</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>264</v>
@@ -3115,63 +3220,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>881</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>264</v>
+      </c>
+      <c r="D39" s="7">
+        <v>215365</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="7">
+        <v>622</v>
+      </c>
+      <c r="I39" s="7">
+        <v>364310</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="7">
+        <v>886</v>
+      </c>
+      <c r="N39" s="7">
+        <v>579675</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>234</v>
+      </c>
+      <c r="D40" s="7">
+        <v>200879</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="7">
+        <v>618</v>
+      </c>
+      <c r="I40" s="7">
+        <v>341750</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" s="7">
+        <v>852</v>
+      </c>
+      <c r="N40" s="7">
+        <v>542628</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>758</v>
+      </c>
+      <c r="D41" s="7">
+        <v>621062</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1459</v>
+      </c>
+      <c r="I41" s="7">
+        <v>804167</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2217</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1425229</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2119</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2421482</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2661</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2148139</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4780</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4569622</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3375</v>
       </c>
-      <c r="D38" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3458787</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5360</v>
       </c>
-      <c r="I38" s="7">
-        <v>3803647</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3658366</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8735</v>
       </c>
-      <c r="N38" s="7">
-        <v>7187798</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>267</v>
+      <c r="N43" s="7">
+        <v>7117154</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene dificultad para dormirse por la noche en 2023</t>
+          <t>Población según la frecuencia con la que tiene dificultad para dormirse por la noche en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
